--- a/sql/Benevoles.xlsx
+++ b/sql/Benevoles.xlsx
@@ -11,9 +11,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1797" uniqueCount="936">
-  <si>
-    <t>fstephan</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1797" uniqueCount="937">
+  <si>
+    <t>Horodatage</t>
   </si>
   <si>
     <t>Adresse de courriel</t>
@@ -625,7 +625,7 @@
     <t>Jacques</t>
   </si>
   <si>
-    <t xml:space="preserve">Saint Paul - Réunion </t>
+    <t>Réunion, Saint Paul, 99</t>
   </si>
   <si>
     <t xml:space="preserve">BIA + 45h de vol </t>
@@ -703,7 +703,7 @@
     <t>Jianxiong</t>
   </si>
   <si>
-    <t>China, 99</t>
+    <t>China, Chine, 99</t>
   </si>
   <si>
     <t xml:space="preserve">Major in aeronautical engineering </t>
@@ -937,7 +937,7 @@
     <t xml:space="preserve">Elliot Efraín </t>
   </si>
   <si>
-    <t>Mexico, 99</t>
+    <t>Mexico, Mexique, 99</t>
   </si>
   <si>
     <t xml:space="preserve">Élève de Master de SUPAERO </t>
@@ -1113,7 +1113,7 @@
     <t>Francisco Javier</t>
   </si>
   <si>
-    <t>Mexique, 99</t>
+    <t>Mexique, Mexique, 99</t>
   </si>
   <si>
     <t>élève Supaero</t>
@@ -1128,6 +1128,9 @@
     <t>Porfirio</t>
   </si>
   <si>
+    <t>Mexique, Mexique 99</t>
+  </si>
+  <si>
     <t>élève SUPAERO</t>
   </si>
   <si>
@@ -1287,7 +1290,7 @@
     <t>Pierre-Olivier</t>
   </si>
   <si>
-    <t>St Dennis de la Réunion</t>
+    <t>Réunion, St Denis, 99</t>
   </si>
   <si>
     <t>vignenathalie@outlook.fr</t>
@@ -5841,13 +5844,13 @@
         <v>35340.0</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="H56" s="1" t="s">
         <v>26</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="J56" s="1" t="s">
         <v>36</v>
@@ -5877,40 +5880,40 @@
         <v>43179.70207900463</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="E57" s="3">
         <v>35324.0</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="H57" s="1" t="s">
         <v>44</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="J57" s="1" t="s">
         <v>37</v>
       </c>
       <c r="K57" s="1" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="L57" s="1" t="s">
         <v>37</v>
       </c>
       <c r="M57" s="1" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="N57" s="1">
         <v>31400.0</v>
@@ -5919,7 +5922,7 @@
         <v>30</v>
       </c>
       <c r="P57" s="1" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="R57" s="1">
         <v>25.0</v>
@@ -5937,13 +5940,13 @@
         <v>43180.42806351851</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="E58" s="3">
         <v>35659.0</v>
@@ -5958,7 +5961,7 @@
         <v>26</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="J58" s="1" t="s">
         <v>36</v>
@@ -5981,19 +5984,19 @@
         <v>43180.60806212963</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="E59" s="3">
         <v>35866.0</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="G59" s="1" t="s">
         <v>25</v>
@@ -6020,7 +6023,7 @@
         <v>30</v>
       </c>
       <c r="R59" s="1" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="S59" s="16" t="s">
         <v>58</v>
@@ -6031,19 +6034,19 @@
         <v>43180.63869796296</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="E60" s="3">
         <v>35662.0</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="G60" s="1" t="s">
         <v>25</v>
@@ -6052,7 +6055,7 @@
         <v>26</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="J60" s="1" t="s">
         <v>36</v>
@@ -6075,13 +6078,13 @@
         <v>43180.654071666664</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="E61" s="3">
         <v>35585.0</v>
@@ -6090,25 +6093,25 @@
         <v>195</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="H61" s="1" t="s">
         <v>152</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="J61" s="1" t="s">
         <v>37</v>
       </c>
       <c r="K61" s="1" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="L61" s="1" t="s">
         <v>27</v>
       </c>
       <c r="M61" s="1" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="N61" s="1">
         <v>31650.0</v>
@@ -6117,7 +6120,7 @@
         <v>47</v>
       </c>
       <c r="P61" s="1" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="T61" s="1">
         <v>1.0</v>
@@ -6132,28 +6135,28 @@
         <v>43180.686980046296</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="E62" s="3">
         <v>35659.0</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="H62" s="1" t="s">
         <v>44</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="J62" s="1" t="s">
         <v>36</v>
@@ -6165,7 +6168,7 @@
         <v>225</v>
       </c>
       <c r="P62" s="1" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="R62" s="1">
         <v>17.0</v>
@@ -6176,19 +6179,19 @@
         <v>43180.70502284722</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="E63" s="3">
         <v>35873.0</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="G63" s="1" t="s">
         <v>128</v>
@@ -6197,13 +6200,13 @@
         <v>152</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="J63" s="1" t="s">
         <v>37</v>
       </c>
       <c r="K63" s="1" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="L63" s="1" t="s">
         <v>27</v>
@@ -6224,19 +6227,19 @@
         <v>43180.77835896991</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="E64" s="3">
         <v>35259.0</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="G64" s="1" t="s">
         <v>162</v>
@@ -6251,7 +6254,7 @@
         <v>37</v>
       </c>
       <c r="K64" s="1" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="L64" s="1" t="s">
         <v>37</v>
@@ -6271,19 +6274,19 @@
         <v>43180.78067800926</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="E65" s="3">
         <v>35273.0</v>
       </c>
       <c r="F65" s="25" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="G65" s="1" t="s">
         <v>209</v>
@@ -6315,19 +6318,19 @@
         <v>43180.79965969907</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="E66" s="3">
         <v>33615.0</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="H66" s="1" t="s">
         <v>44</v>
@@ -6353,13 +6356,13 @@
         <v>43180.86370011574</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="E67" s="3">
         <v>35583.0</v>
@@ -6374,7 +6377,7 @@
         <v>26</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="J67" s="1" t="s">
         <v>36</v>
@@ -6392,7 +6395,7 @@
         <v>74</v>
       </c>
       <c r="P67" s="1" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="68">
@@ -6400,22 +6403,22 @@
         <v>43180.90837902778</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="E68" s="3">
         <v>33825.0</v>
       </c>
       <c r="F68" s="25" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="H68" s="1" t="s">
         <v>44</v>
@@ -6424,13 +6427,13 @@
         <v>37</v>
       </c>
       <c r="K68" s="1" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="L68" s="1" t="s">
         <v>27</v>
       </c>
       <c r="M68" s="1" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="N68" s="1">
         <v>31470.0</v>
@@ -6444,28 +6447,28 @@
         <v>43180.91952420139</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="E69" s="3">
         <v>36200.0</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="H69" s="1" t="s">
         <v>44</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="J69" s="1" t="s">
         <v>36</v>
@@ -6474,7 +6477,7 @@
         <v>37</v>
       </c>
       <c r="M69" s="1" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="N69" s="1">
         <v>31400.0</v>
@@ -6488,31 +6491,31 @@
         <v>43180.92991552083</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="E70" s="3">
         <v>31463.0</v>
       </c>
       <c r="F70" s="25" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="H70" s="1" t="s">
         <v>44</v>
       </c>
       <c r="I70" s="16" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="J70" s="1" t="s">
         <v>37</v>
       </c>
       <c r="K70" s="1" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="L70" s="1" t="s">
         <v>36</v>
@@ -6521,7 +6524,7 @@
         <v>116</v>
       </c>
       <c r="P70" s="1" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="R70" s="1">
         <v>6.0</v>
@@ -6532,13 +6535,13 @@
         <v>43180.93372028935</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="E71" s="3">
         <v>29137.0</v>
@@ -6550,13 +6553,13 @@
         <v>44</v>
       </c>
       <c r="I71" s="16" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="J71" s="1" t="s">
         <v>37</v>
       </c>
       <c r="K71" s="1" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="L71" s="1" t="s">
         <v>36</v>
@@ -6565,7 +6568,7 @@
         <v>116</v>
       </c>
       <c r="P71" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="R71" s="1">
         <v>6.0</v>
@@ -6576,13 +6579,13 @@
         <v>43181.439066736115</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="E72" s="3">
         <v>35345.0</v>
@@ -6591,19 +6594,19 @@
         <v>97</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="H72" s="1" t="s">
         <v>26</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="J72" s="1" t="s">
         <v>37</v>
       </c>
       <c r="K72" s="1" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="L72" s="1" t="s">
         <v>27</v>
@@ -6618,7 +6621,7 @@
         <v>30</v>
       </c>
       <c r="P72" s="1" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="73">
@@ -6626,19 +6629,19 @@
         <v>43181.57733707176</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="E73" s="3">
         <v>35958.0</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="G73" s="1" t="s">
         <v>25</v>
@@ -6647,13 +6650,13 @@
         <v>44</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="J73" s="1" t="s">
         <v>37</v>
       </c>
       <c r="K73" s="1" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="L73" s="1" t="s">
         <v>27</v>
@@ -6668,7 +6671,7 @@
         <v>225</v>
       </c>
       <c r="P73" s="1" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="R73" s="1">
         <v>17.0</v>
@@ -6679,19 +6682,19 @@
         <v>43182.727946875</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="E74" s="3">
         <v>34525.0</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="G74" s="1" t="s">
         <v>25</v>
@@ -6700,7 +6703,7 @@
         <v>26</v>
       </c>
       <c r="I74" s="16" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="J74" s="1" t="s">
         <v>36</v>
@@ -6718,7 +6721,7 @@
         <v>116</v>
       </c>
       <c r="S74" s="1" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="75">
@@ -6726,13 +6729,13 @@
         <v>43184.92690020833</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="E75" s="3">
         <v>35488.0</v>
@@ -6765,7 +6768,7 @@
         <v>116</v>
       </c>
       <c r="P75" s="1" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="R75" s="1">
         <v>12.0</v>
@@ -6776,19 +6779,19 @@
         <v>43185.84696472222</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="E76" s="3">
         <v>25181.0</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="H76" s="1" t="s">
         <v>26</v>
@@ -6797,13 +6800,13 @@
         <v>37</v>
       </c>
       <c r="K76" s="1" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="L76" s="1" t="s">
         <v>37</v>
       </c>
       <c r="M76" s="1" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="N76" s="1">
         <v>31700.0</v>
@@ -6817,34 +6820,34 @@
         <v>43193.93003045139</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="E77" s="3">
         <v>33195.0</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="H77" s="1" t="s">
         <v>26</v>
       </c>
       <c r="I77" s="1" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="J77" s="1" t="s">
         <v>37</v>
       </c>
       <c r="K77" s="1" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="L77" s="1" t="s">
         <v>36</v>
@@ -6861,13 +6864,13 @@
         <v>43194.57086893519</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="E78" s="3">
         <v>36113.0</v>
@@ -6882,25 +6885,25 @@
         <v>122</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="J78" s="1" t="s">
         <v>37</v>
       </c>
       <c r="K78" s="1" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="L78" s="1" t="s">
         <v>37</v>
       </c>
       <c r="M78" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="N78" s="1">
         <v>31620.0</v>
       </c>
       <c r="O78" s="4" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="79">
@@ -6908,13 +6911,13 @@
         <v>43195.39062064815</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="E79" s="3">
         <v>35740.0</v>
@@ -6929,7 +6932,7 @@
         <v>44</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="J79" s="1" t="s">
         <v>36</v>
@@ -6947,7 +6950,7 @@
         <v>30</v>
       </c>
       <c r="P79" s="1" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="R79" s="1">
         <v>18.0</v>
@@ -6958,10 +6961,10 @@
         <v>43195.476956377315</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>318</v>
@@ -6970,7 +6973,7 @@
         <v>35120.0</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="G80" s="1" t="s">
         <v>25</v>
@@ -6979,7 +6982,7 @@
         <v>44</v>
       </c>
       <c r="I80" s="1" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="J80" s="1" t="s">
         <v>36</v>
@@ -6997,7 +7000,7 @@
         <v>30</v>
       </c>
       <c r="P80" s="1" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="R80" s="1">
         <v>18.0</v>
@@ -7008,19 +7011,19 @@
         <v>43197.681742534725</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="E81" s="3">
         <v>36038.0</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="G81" s="1" t="s">
         <v>25</v>
@@ -7035,7 +7038,7 @@
         <v>37</v>
       </c>
       <c r="K81" s="1" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="L81" s="1" t="s">
         <v>27</v>
@@ -7050,7 +7053,7 @@
         <v>47</v>
       </c>
       <c r="P81" s="1" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="R81" s="1">
         <v>25.0</v>
@@ -7061,10 +7064,10 @@
         <v>43199.46927185185</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>270</v>
@@ -7073,7 +7076,7 @@
         <v>35597.0</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="G82" s="1" t="s">
         <v>25</v>
@@ -7085,7 +7088,7 @@
         <v>27</v>
       </c>
       <c r="K82" s="1" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="L82" s="1" t="s">
         <v>27</v>
@@ -7100,7 +7103,7 @@
         <v>30</v>
       </c>
       <c r="P82" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="R82" s="1">
         <v>18.0</v>
@@ -7111,22 +7114,22 @@
         <v>43200.808113645835</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="E83" s="3">
         <v>35891.0</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="H83" s="1" t="s">
         <v>26</v>
@@ -7138,7 +7141,7 @@
         <v>37</v>
       </c>
       <c r="K83" s="1" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="L83" s="1" t="s">
         <v>27</v>
@@ -7158,19 +7161,19 @@
         <v>43200.81313760417</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="E84" s="3">
         <v>35491.0</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="G84" s="1" t="s">
         <v>110</v>
@@ -7179,7 +7182,7 @@
         <v>44</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="J84" s="1" t="s">
         <v>36</v>
@@ -7197,7 +7200,7 @@
         <v>47</v>
       </c>
       <c r="S84" s="1" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="T84" s="1">
         <v>0.0</v>
@@ -7212,34 +7215,34 @@
         <v>43202.57381965278</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="E85" s="3">
         <v>36325.0</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="H85" s="1" t="s">
         <v>26</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="J85" s="1" t="s">
         <v>27</v>
       </c>
       <c r="K85" s="1" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="L85" s="1" t="s">
         <v>37</v>
@@ -7266,13 +7269,13 @@
         <v>43205.29800177083</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="E86" s="3">
         <v>33589.0</v>
@@ -7290,7 +7293,7 @@
         <v>27</v>
       </c>
       <c r="K86" s="1" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="L86" s="1" t="s">
         <v>27</v>
@@ -7305,7 +7308,7 @@
         <v>47</v>
       </c>
       <c r="S86" s="1" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="T86" s="1">
         <v>1.0</v>
@@ -7319,19 +7322,19 @@
         <v>43207.82770138889</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="E87" s="3">
         <v>35646.0</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="G87" s="1" t="s">
         <v>25</v>
@@ -7340,13 +7343,13 @@
         <v>44</v>
       </c>
       <c r="I87" s="1" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="J87" s="1" t="s">
         <v>27</v>
       </c>
       <c r="K87" s="1" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="L87" s="1" t="s">
         <v>27</v>
@@ -7373,19 +7376,19 @@
         <v>43207.86728528935</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="E88" s="3">
         <v>35288.0</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="G88" s="1" t="s">
         <v>25</v>
@@ -7394,13 +7397,13 @@
         <v>44</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="J88" s="1" t="s">
         <v>37</v>
       </c>
       <c r="K88" s="1" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="L88" s="1" t="s">
         <v>27</v>
@@ -7415,7 +7418,7 @@
         <v>116</v>
       </c>
       <c r="P88" s="1" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="R88" s="1">
         <v>7.0</v>
@@ -7426,19 +7429,19 @@
         <v>43207.869379317126</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="E89" s="3">
         <v>35514.0</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="G89" s="1" t="s">
         <v>25</v>
@@ -7447,7 +7450,7 @@
         <v>81</v>
       </c>
       <c r="I89" s="1" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="J89" s="1" t="s">
         <v>36</v>
@@ -7465,7 +7468,7 @@
         <v>116</v>
       </c>
       <c r="P89" s="1" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="R89" s="1">
         <v>7.0</v>
@@ -7476,19 +7479,19 @@
         <v>43208.739758090276</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="E90" s="3">
         <v>35093.0</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="G90" s="1" t="s">
         <v>25</v>
@@ -7497,19 +7500,19 @@
         <v>26</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="J90" s="1" t="s">
         <v>37</v>
       </c>
       <c r="K90" s="1" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="L90" s="1" t="s">
         <v>37</v>
       </c>
       <c r="M90" s="1" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="N90" s="1">
         <v>31400.0</v>
@@ -7518,7 +7521,7 @@
         <v>47</v>
       </c>
       <c r="P90" s="1" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="91">
@@ -7526,13 +7529,13 @@
         <v>43209.50315409723</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="E91" s="3">
         <v>33409.0</v>
@@ -7547,19 +7550,19 @@
         <v>26</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="J91" s="1" t="s">
         <v>37</v>
       </c>
       <c r="K91" s="1" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="L91" s="1" t="s">
         <v>37</v>
       </c>
       <c r="M91" s="1" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="N91" s="1">
         <v>31700.0</v>
@@ -7573,31 +7576,31 @@
         <v>43209.6704069213</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="E92" s="3">
         <v>35763.0</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="H92" s="1" t="s">
         <v>44</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="J92" s="1" t="s">
         <v>27</v>
       </c>
       <c r="K92" s="1" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="L92" s="1" t="s">
         <v>37</v>
@@ -7609,7 +7612,7 @@
         <v>31400.0</v>
       </c>
       <c r="O92" s="4" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="93">
@@ -7617,13 +7620,13 @@
         <v>43213.86024150463</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="E93" s="3">
         <v>29591.0</v>
@@ -7641,7 +7644,7 @@
         <v>37</v>
       </c>
       <c r="K93" s="1" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="L93" s="1" t="s">
         <v>36</v>
@@ -7655,13 +7658,13 @@
         <v>43214.708146875</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="E94" s="3">
         <v>35745.0</v>
@@ -7676,19 +7679,19 @@
         <v>152</v>
       </c>
       <c r="I94" s="1" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="J94" s="1" t="s">
         <v>27</v>
       </c>
       <c r="K94" s="1" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="L94" s="1" t="s">
         <v>27</v>
       </c>
       <c r="M94" s="1" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="N94" s="1">
         <v>31750.0</v>
@@ -7697,7 +7700,7 @@
         <v>74</v>
       </c>
       <c r="P94" s="1" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="R94" s="1">
         <v>19.0</v>
@@ -7708,10 +7711,10 @@
         <v>43214.70906109954</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="D95" s="1" t="s">
         <v>318</v>
@@ -7720,16 +7723,16 @@
         <v>36035.0</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="H95" s="1" t="s">
         <v>81</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="J95" s="1" t="s">
         <v>36</v>
@@ -7747,7 +7750,7 @@
         <v>74</v>
       </c>
       <c r="P95" s="1" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="R95" s="1">
         <v>19.0</v>
@@ -7758,19 +7761,19 @@
         <v>43215.68751287037</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="E96" s="3">
         <v>35685.0</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="G96" s="1" t="s">
         <v>209</v>
@@ -7779,7 +7782,7 @@
         <v>81</v>
       </c>
       <c r="I96" s="1" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="J96" s="1" t="s">
         <v>36</v>
@@ -7794,10 +7797,10 @@
         <v>31400.0</v>
       </c>
       <c r="O96" s="1" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="P96" s="1" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="R96" s="1">
         <v>5.0</v>
@@ -7808,13 +7811,13 @@
         <v>43216.69914277778</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="E97" s="3">
         <v>34969.0</v>
@@ -7826,7 +7829,7 @@
         <v>81</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="J97" s="1" t="s">
         <v>36</v>
@@ -7849,10 +7852,10 @@
         <v>43217.77254792824</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="D98" s="1" t="s">
         <v>120</v>
@@ -7861,7 +7864,7 @@
         <v>36376.0</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="G98" s="1" t="s">
         <v>25</v>
@@ -7870,13 +7873,13 @@
         <v>26</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="J98" s="1" t="s">
         <v>37</v>
       </c>
       <c r="K98" s="1" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="L98" s="1" t="s">
         <v>37</v>
@@ -7897,10 +7900,10 @@
         <v>43218.571904236116</v>
       </c>
       <c r="B99" s="12" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="C99" s="12" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="D99" s="12" t="s">
         <v>194</v>
@@ -7912,13 +7915,13 @@
         <v>195</v>
       </c>
       <c r="G99" s="12" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="H99" s="12" t="s">
         <v>44</v>
       </c>
       <c r="I99" s="12" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="J99" s="12" t="s">
         <v>36</v>
@@ -7937,11 +7940,11 @@
         <v>30</v>
       </c>
       <c r="P99" s="12" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="Q99" s="14"/>
       <c r="R99" s="12" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="S99" s="12" t="s">
         <v>58</v>
@@ -7955,13 +7958,13 @@
         <v>43218.587058171295</v>
       </c>
       <c r="B100" s="12" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="C100" s="12" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D100" s="12" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="E100" s="13">
         <v>35554.0</v>
@@ -7976,7 +7979,7 @@
         <v>81</v>
       </c>
       <c r="I100" s="12" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="J100" s="12" t="s">
         <v>36</v>
@@ -8011,13 +8014,13 @@
         <v>43219.59706987269</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="E101" s="3">
         <v>35434.0</v>
@@ -8026,13 +8029,13 @@
         <v>195</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="H101" s="1" t="s">
         <v>44</v>
       </c>
       <c r="I101" s="16" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="J101" s="1" t="s">
         <v>36</v>
@@ -8041,10 +8044,10 @@
         <v>36</v>
       </c>
       <c r="O101" s="4" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="P101" s="1" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="R101" s="1">
         <v>8.0</v>
@@ -8055,19 +8058,19 @@
         <v>43219.601650798606</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="E102" s="3">
         <v>35154.0</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="G102" s="1" t="s">
         <v>128</v>
@@ -8076,22 +8079,22 @@
         <v>26</v>
       </c>
       <c r="I102" s="16" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="J102" s="1" t="s">
         <v>27</v>
       </c>
       <c r="K102" s="1" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="L102" s="1" t="s">
         <v>36</v>
       </c>
       <c r="O102" s="4" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="P102" s="1" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="R102" s="1">
         <v>8.0</v>
@@ -8102,28 +8105,28 @@
         <v>43220.01645094907</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="E103" s="3">
         <v>35293.0</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="H103" s="1" t="s">
         <v>81</v>
       </c>
       <c r="I103" s="1" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="J103" s="1" t="s">
         <v>36</v>
@@ -8132,7 +8135,7 @@
         <v>37</v>
       </c>
       <c r="M103" s="1" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="N103" s="1">
         <v>33260.0</v>
@@ -8141,7 +8144,7 @@
         <v>116</v>
       </c>
       <c r="P103" s="1" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="R103" s="1">
         <v>14.0</v>
@@ -8153,22 +8156,22 @@
         <v>43220.43918206019</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="E104" s="3">
         <v>34511.0</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="H104" s="1" t="s">
         <v>44</v>
@@ -8177,7 +8180,7 @@
         <v>37</v>
       </c>
       <c r="K104" s="1" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="L104" s="1" t="s">
         <v>27</v>
@@ -8192,7 +8195,7 @@
         <v>47</v>
       </c>
       <c r="P104" s="1" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="R104" s="1">
         <v>14.0</v>
@@ -8203,37 +8206,37 @@
         <v>43221.681880358796</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="E105" s="3">
         <v>36259.0</v>
       </c>
       <c r="F105" s="25" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="H105" s="1" t="s">
         <v>44</v>
       </c>
       <c r="I105" s="1" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="J105" s="1" t="s">
         <v>27</v>
       </c>
       <c r="K105" s="1" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="L105" s="1" t="s">
         <v>37</v>
       </c>
       <c r="M105" s="1" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="N105" s="1">
         <v>40230.0</v>
@@ -8242,7 +8245,7 @@
         <v>47</v>
       </c>
       <c r="P105" s="1" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="R105" s="1">
         <v>14.0</v>
@@ -8253,19 +8256,19 @@
         <v>43222.4196321412</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="E106" s="3">
         <v>35464.0</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="G106" s="1" t="s">
         <v>25</v>
@@ -8274,7 +8277,7 @@
         <v>26</v>
       </c>
       <c r="I106" s="1" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="J106" s="1" t="s">
         <v>36</v>
@@ -8292,7 +8295,7 @@
         <v>55</v>
       </c>
       <c r="P106" s="1" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="V106" s="1"/>
     </row>
@@ -8301,19 +8304,19 @@
         <v>43222.49194796296</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="E107" s="3">
         <v>35704.0</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="G107" s="1" t="s">
         <v>25</v>
@@ -8322,7 +8325,7 @@
         <v>44</v>
       </c>
       <c r="I107" s="1" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="J107" s="1" t="s">
         <v>36</v>
@@ -8346,13 +8349,13 @@
         <v>43222.687782650464</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="E108" s="3">
         <v>35204.0</v>
@@ -8379,7 +8382,7 @@
         <v>85</v>
       </c>
       <c r="P108" s="1" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="R108" s="1">
         <v>1.0</v>
@@ -8390,19 +8393,19 @@
         <v>43222.74584570602</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="E109" s="3">
         <v>34926.0</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="G109" s="1" t="s">
         <v>25</v>
@@ -8426,10 +8429,10 @@
         <v>31400.0</v>
       </c>
       <c r="O109" s="4" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="P109" s="1" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
     </row>
     <row r="110">
@@ -8437,22 +8440,22 @@
         <v>43222.792695578704</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="E110" s="3">
         <v>35080.0</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="H110" s="1" t="s">
         <v>26</v>
@@ -8464,7 +8467,7 @@
         <v>37</v>
       </c>
       <c r="K110" s="1" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="L110" s="1" t="s">
         <v>37</v>
@@ -8479,7 +8482,7 @@
         <v>74</v>
       </c>
       <c r="P110" s="1" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="R110" s="1">
         <v>11.0</v>
@@ -8491,19 +8494,19 @@
         <v>43222.817136620375</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="E111" s="3">
         <v>35214.0</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="G111" s="1" t="s">
         <v>25</v>
@@ -8512,19 +8515,19 @@
         <v>26</v>
       </c>
       <c r="I111" s="1" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="J111" s="1" t="s">
         <v>37</v>
       </c>
       <c r="K111" s="1" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="L111" s="1" t="s">
         <v>37</v>
       </c>
       <c r="M111" s="1" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="N111" s="1">
         <v>31400.0</v>
@@ -8538,19 +8541,19 @@
         <v>43223.51364392361</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="E112" s="3">
         <v>35192.0</v>
       </c>
       <c r="F112" s="25" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="G112" s="1" t="s">
         <v>110</v>
@@ -8559,7 +8562,7 @@
         <v>44</v>
       </c>
       <c r="I112" s="1" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="J112" s="1" t="s">
         <v>36</v>
@@ -8571,7 +8574,7 @@
         <v>116</v>
       </c>
       <c r="P112" s="1" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="R112" s="1">
         <v>23.0</v>
@@ -8582,13 +8585,13 @@
         <v>43223.67288849537</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="E113" s="3">
         <v>29370.0</v>
@@ -8623,19 +8626,19 @@
         <v>43224.597943217595</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="E114" s="3">
         <v>31762.0</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="G114" s="1" t="s">
         <v>25</v>
@@ -8644,22 +8647,22 @@
         <v>44</v>
       </c>
       <c r="I114" s="1" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="J114" s="1" t="s">
         <v>27</v>
       </c>
       <c r="K114" s="1" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="L114" s="1" t="s">
         <v>36</v>
       </c>
       <c r="O114" s="1" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="P114" s="26" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
     </row>
     <row r="115">
@@ -8667,13 +8670,13 @@
         <v>43224.84411689815</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="E115" s="3">
         <v>34898.0</v>
@@ -8682,25 +8685,25 @@
         <v>195</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="H115" s="1" t="s">
         <v>44</v>
       </c>
       <c r="I115" s="1" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="J115" s="1" t="s">
         <v>37</v>
       </c>
       <c r="K115" s="1" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="L115" s="1" t="s">
         <v>37</v>
       </c>
       <c r="M115" s="1" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="N115" s="1">
         <v>31000.0</v>
@@ -8712,7 +8715,7 @@
         <v>281</v>
       </c>
       <c r="S115" s="1" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="V115" s="1"/>
     </row>
@@ -8721,34 +8724,34 @@
         <v>43224.998731458334</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="E116" s="3">
         <v>35585.0</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="H116" s="1" t="s">
         <v>26</v>
       </c>
       <c r="I116" s="1" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="J116" s="1" t="s">
         <v>37</v>
       </c>
       <c r="K116" s="1" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="L116" s="1" t="s">
         <v>37</v>
@@ -8768,25 +8771,25 @@
         <v>43225.430620914354</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="E117" s="3">
         <v>29449.0</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="H117" s="1" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="I117" s="1" t="s">
         <v>123</v>
@@ -8795,19 +8798,19 @@
         <v>37</v>
       </c>
       <c r="K117" s="1" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="L117" s="1" t="s">
         <v>37</v>
       </c>
       <c r="M117" s="1" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="N117" s="1">
         <v>31600.0</v>
       </c>
       <c r="O117" s="4" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
     </row>
     <row r="118">
@@ -8815,43 +8818,43 @@
         <v>43225.61146157407</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="E118" s="3">
         <v>17149.0</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="H118" s="1" t="s">
         <v>152</v>
       </c>
       <c r="I118" s="1" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="J118" s="1" t="s">
         <v>37</v>
       </c>
       <c r="K118" s="1" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="L118" s="1" t="s">
         <v>36</v>
       </c>
       <c r="O118" s="1" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="P118" s="1" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
     </row>
     <row r="119">
@@ -8859,19 +8862,19 @@
         <v>43226.43389201388</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="E119" s="3">
         <v>33654.0</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="G119" s="1" t="s">
         <v>209</v>
@@ -8880,13 +8883,13 @@
         <v>44</v>
       </c>
       <c r="I119" s="1" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="J119" s="1" t="s">
         <v>27</v>
       </c>
       <c r="K119" s="1" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="L119" s="1" t="s">
         <v>27</v>
@@ -8906,19 +8909,19 @@
         <v>43226.53369324074</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="E120" s="3">
         <v>32150.0</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="H120" s="1" t="s">
         <v>44</v>
@@ -8927,13 +8930,13 @@
         <v>37</v>
       </c>
       <c r="K120" s="1" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="L120" s="1" t="s">
         <v>37</v>
       </c>
       <c r="M120" s="1" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="N120" s="1">
         <v>31170.0</v>
@@ -8947,25 +8950,25 @@
         <v>43227.884767627314</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="E121" s="3">
         <v>35401.0</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="H121" s="1" t="s">
         <v>81</v>
       </c>
       <c r="I121" s="1" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="J121" s="1" t="s">
         <v>36</v>
@@ -8983,7 +8986,7 @@
         <v>116</v>
       </c>
       <c r="P121" s="1" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="R121" s="1">
         <v>9.0</v>
@@ -8994,19 +8997,19 @@
         <v>43227.97142071759</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="E122" s="3">
         <v>34455.0</v>
       </c>
       <c r="F122" s="6" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="G122" s="1" t="s">
         <v>80</v>
@@ -9018,7 +9021,7 @@
         <v>27</v>
       </c>
       <c r="K122" s="1" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="L122" s="1" t="s">
         <v>27</v>
@@ -9038,10 +9041,10 @@
         <v>43228.50903637732</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="D123" s="1" t="s">
         <v>199</v>
@@ -9050,7 +9053,7 @@
         <v>35013.0</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="G123" s="1" t="s">
         <v>110</v>
@@ -9059,7 +9062,7 @@
         <v>44</v>
       </c>
       <c r="I123" s="1" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="J123" s="1" t="s">
         <v>36</v>
@@ -9077,7 +9080,7 @@
         <v>116</v>
       </c>
       <c r="P123" s="1" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="R123" s="1">
         <v>9.0</v>
@@ -9088,19 +9091,19 @@
         <v>43229.58342873842</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="E124" s="3">
         <v>36382.0</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="H124" s="1" t="s">
         <v>44</v>
@@ -9109,19 +9112,19 @@
         <v>37</v>
       </c>
       <c r="K124" s="1" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="L124" s="1" t="s">
         <v>37</v>
       </c>
       <c r="M124" s="1" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="N124" s="1">
         <v>31270.0</v>
       </c>
       <c r="O124" s="4" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
     </row>
     <row r="125">
@@ -9129,19 +9132,19 @@
         <v>43231.032301018524</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="E125" s="3">
         <v>36404.0</v>
       </c>
       <c r="F125" s="25" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="G125" s="1" t="s">
         <v>25</v>
@@ -9150,7 +9153,7 @@
         <v>44</v>
       </c>
       <c r="I125" s="16" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="J125" s="1" t="s">
         <v>36</v>
@@ -9159,7 +9162,7 @@
         <v>37</v>
       </c>
       <c r="M125" s="1" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="N125" s="1">
         <v>71100.0</v>
@@ -9168,7 +9171,7 @@
         <v>30</v>
       </c>
       <c r="P125" s="1" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
     </row>
     <row r="126">
@@ -9176,19 +9179,19 @@
         <v>43235.50893960649</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="E126" s="3">
         <v>34169.0</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="H126" s="1" t="s">
         <v>44</v>
@@ -9197,7 +9200,7 @@
         <v>27</v>
       </c>
       <c r="K126" s="1" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="L126" s="1" t="s">
         <v>27</v>
@@ -9212,7 +9215,7 @@
         <v>74</v>
       </c>
       <c r="P126" s="1" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
     </row>
     <row r="127">
@@ -9220,31 +9223,31 @@
         <v>43235.64116211806</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="E127" s="3">
         <v>35588.0</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="H127" s="1" t="s">
         <v>44</v>
       </c>
       <c r="I127" s="1" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="J127" s="1" t="s">
         <v>37</v>
       </c>
       <c r="K127" s="1" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="L127" s="1" t="s">
         <v>36</v>
@@ -9258,34 +9261,34 @@
         <v>43235.700322476856</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="E128" s="3">
         <v>35345.0</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="G128" s="1" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="H128" s="1" t="s">
         <v>44</v>
       </c>
       <c r="I128" s="1" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="J128" s="1" t="s">
         <v>27</v>
       </c>
       <c r="K128" s="1" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="L128" s="1" t="s">
         <v>27</v>
@@ -9300,7 +9303,7 @@
         <v>116</v>
       </c>
       <c r="P128" s="1" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="R128" s="1">
         <v>9.0</v>
@@ -9311,19 +9314,19 @@
         <v>43235.76708471065</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="E129" s="3">
         <v>34721.0</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="G129" s="1" t="s">
         <v>80</v>
@@ -9332,7 +9335,7 @@
         <v>122</v>
       </c>
       <c r="I129" s="16" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="J129" s="1" t="s">
         <v>36</v>
@@ -9350,7 +9353,7 @@
         <v>85</v>
       </c>
       <c r="P129" s="1" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
     </row>
     <row r="130">
@@ -9358,34 +9361,34 @@
         <v>43235.825270057874</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="E130" s="3">
         <v>35508.0</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="G130" s="1" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="H130" s="1" t="s">
         <v>44</v>
       </c>
       <c r="I130" s="1" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="J130" s="1" t="s">
         <v>37</v>
       </c>
       <c r="K130" s="1" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="L130" s="1" t="s">
         <v>36</v>
@@ -9402,19 +9405,19 @@
         <v>43235.83767353009</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="E131" s="3">
         <v>35732.0</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="G131" s="1" t="s">
         <v>110</v>
@@ -9423,13 +9426,13 @@
         <v>152</v>
       </c>
       <c r="I131" s="1" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="J131" s="1" t="s">
         <v>37</v>
       </c>
       <c r="K131" s="1" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="L131" s="1" t="s">
         <v>27</v>
@@ -9449,38 +9452,38 @@
         <v>43235.87355711806</v>
       </c>
       <c r="B132" s="6" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="C132" s="6" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="D132" s="6" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="E132" s="7">
         <v>20678.0</v>
       </c>
       <c r="F132" s="6" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="G132" s="8"/>
       <c r="H132" s="6" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="I132" s="6" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="J132" s="6" t="s">
         <v>37</v>
       </c>
       <c r="K132" s="6" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="L132" s="6" t="s">
         <v>27</v>
       </c>
       <c r="M132" s="6" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="N132" s="6">
         <v>31320.0</v>
@@ -9489,7 +9492,7 @@
         <v>338</v>
       </c>
       <c r="P132" s="6" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="Q132" s="8"/>
       <c r="R132" s="8"/>
@@ -9503,38 +9506,38 @@
         <v>43235.90924291666</v>
       </c>
       <c r="B133" s="6" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="C133" s="6" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="D133" s="6" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="E133" s="7">
         <v>22192.0</v>
       </c>
       <c r="F133" s="6" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="G133" s="8"/>
       <c r="H133" s="6" t="s">
         <v>152</v>
       </c>
       <c r="I133" s="6" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="J133" s="6" t="s">
         <v>37</v>
       </c>
       <c r="K133" s="6" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="L133" s="6" t="s">
         <v>37</v>
       </c>
       <c r="M133" s="6" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="N133" s="6">
         <v>9100.0</v>
@@ -9543,7 +9546,7 @@
         <v>47</v>
       </c>
       <c r="P133" s="6" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="Q133" s="8"/>
       <c r="R133" s="8"/>
@@ -9557,13 +9560,13 @@
         <v>43236.44736578704</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="E134" s="3">
         <v>32541.0</v>
@@ -9575,7 +9578,7 @@
         <v>128</v>
       </c>
       <c r="H134" s="1" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="J134" s="1" t="s">
         <v>36</v>
@@ -9592,19 +9595,19 @@
         <v>43236.528894675925</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="E135" s="3">
         <v>36678.0</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="G135" s="1" t="s">
         <v>128</v>
@@ -9613,7 +9616,7 @@
         <v>44</v>
       </c>
       <c r="I135" s="1" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="J135" s="1" t="s">
         <v>36</v>
@@ -9630,13 +9633,13 @@
         <v>43236.61516836805</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="E136" s="3">
         <v>35191.0</v>
@@ -9645,19 +9648,19 @@
         <v>97</v>
       </c>
       <c r="G136" s="1" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="H136" s="1" t="s">
         <v>44</v>
       </c>
       <c r="I136" s="1" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="J136" s="1" t="s">
         <v>27</v>
       </c>
       <c r="K136" s="1" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="L136" s="1" t="s">
         <v>36</v>
@@ -9666,7 +9669,7 @@
         <v>74</v>
       </c>
       <c r="P136" s="1" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="R136" s="1">
         <v>20.0</v>
@@ -9677,13 +9680,13 @@
         <v>43236.83455018519</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="E137" s="3">
         <v>35224.0</v>
@@ -9698,13 +9701,13 @@
         <v>44</v>
       </c>
       <c r="I137" s="1" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="J137" s="1" t="s">
         <v>37</v>
       </c>
       <c r="K137" s="1" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="L137" s="1" t="s">
         <v>36</v>
@@ -9713,7 +9716,7 @@
         <v>30</v>
       </c>
       <c r="P137" s="1" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="R137" s="1">
         <v>26.0</v>
@@ -9730,19 +9733,19 @@
         <v>43236.856384074075</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="E138" s="3">
         <v>35605.0</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="G138" s="1" t="s">
         <v>110</v>
@@ -9766,7 +9769,7 @@
         <v>116</v>
       </c>
       <c r="P138" s="1" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="R138" s="1" t="s">
         <v>66</v>
@@ -9777,37 +9780,37 @@
         <v>43236.91837788194</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="E139" s="3">
         <v>35505.0</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="H139" s="1" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="I139" s="1" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="J139" s="1" t="s">
         <v>37</v>
       </c>
       <c r="K139" s="1" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="L139" s="1" t="s">
         <v>37</v>
       </c>
       <c r="M139" s="1" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="N139" s="1">
         <v>31400.0</v>
@@ -9821,19 +9824,19 @@
         <v>43237.96141023148</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="E140" s="3">
         <v>35532.0</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="H140" s="1" t="s">
         <v>44</v>
@@ -9848,7 +9851,7 @@
         <v>225</v>
       </c>
       <c r="P140" s="1" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
     </row>
     <row r="141">
@@ -9856,19 +9859,19 @@
         <v>43238.10185944445</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="E141" s="3">
         <v>35622.0</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="H141" s="1" t="s">
         <v>44</v>
@@ -9886,10 +9889,10 @@
         <v>31400.0</v>
       </c>
       <c r="O141" s="1" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="P141" s="1" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
     </row>
     <row r="142">
@@ -9897,10 +9900,10 @@
         <v>43238.51665449074</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="D142" s="1" t="s">
         <v>132</v>
@@ -9909,10 +9912,10 @@
         <v>35732.0</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="G142" s="1" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="H142" s="1" t="s">
         <v>81</v>
@@ -9933,7 +9936,7 @@
         <v>85</v>
       </c>
       <c r="P142" s="1" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="R142" s="1">
         <v>24.0</v>
@@ -9944,10 +9947,10 @@
         <v>43238.523371435185</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="D143" s="1" t="s">
         <v>23</v>
@@ -9985,19 +9988,19 @@
         <v>43238.557595300925</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="E144" s="3">
         <v>26953.0</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="G144" s="1" t="s">
         <v>25</v>
@@ -10009,13 +10012,13 @@
         <v>37</v>
       </c>
       <c r="K144" s="1" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="L144" s="1" t="s">
         <v>27</v>
       </c>
       <c r="M144" s="1" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="N144" s="1">
         <v>82230.0</v>
@@ -10029,19 +10032,19 @@
         <v>43238.89527178241</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="E145" s="3">
         <v>35853.0</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="G145" s="1" t="s">
         <v>25</v>
@@ -10050,7 +10053,7 @@
         <v>81</v>
       </c>
       <c r="I145" s="1" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="J145" s="1" t="s">
         <v>36</v>
@@ -10068,7 +10071,7 @@
         <v>47</v>
       </c>
       <c r="P145" s="1" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
     </row>
     <row r="146">
@@ -10076,13 +10079,13 @@
         <v>43238.90995861111</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="E146" s="3">
         <v>43191.0</v>
@@ -10094,7 +10097,7 @@
         <v>25</v>
       </c>
       <c r="H146" s="1" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="J146" s="1" t="s">
         <v>36</v>
@@ -10111,13 +10114,13 @@
         <v>43238.97055914352</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="E147" s="3">
         <v>35768.0</v>
@@ -10144,7 +10147,7 @@
         <v>116</v>
       </c>
       <c r="P147" s="1" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="R147" s="1">
         <v>21.0</v>
@@ -10155,13 +10158,13 @@
         <v>43239.78159458333</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="E148" s="3">
         <v>35601.0</v>
@@ -10182,7 +10185,7 @@
         <v>37</v>
       </c>
       <c r="M148" s="1" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="N148" s="1">
         <v>31650.0</v>
@@ -10196,10 +10199,10 @@
         <v>43239.85951421296</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="D149" s="1" t="s">
         <v>215</v>
@@ -10211,19 +10214,19 @@
         <v>195</v>
       </c>
       <c r="G149" s="1" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="H149" s="1" t="s">
         <v>44</v>
       </c>
       <c r="I149" s="1" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="J149" s="1" t="s">
         <v>37</v>
       </c>
       <c r="K149" s="1" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="L149" s="1" t="s">
         <v>36</v>
@@ -10237,19 +10240,19 @@
         <v>43239.866061319444</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="E150" s="3">
         <v>27596.0</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="H150" s="1" t="s">
         <v>152</v>
@@ -10258,13 +10261,13 @@
         <v>37</v>
       </c>
       <c r="K150" s="1" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="L150" s="1" t="s">
         <v>37</v>
       </c>
       <c r="M150" s="1" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="N150" s="1">
         <v>31700.0</v>
@@ -10278,19 +10281,19 @@
         <v>43239.934580601854</v>
       </c>
       <c r="B151" s="12" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="C151" s="12" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="D151" s="12" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="E151" s="13">
         <v>43244.0</v>
       </c>
       <c r="F151" s="12" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="G151" s="14"/>
       <c r="H151" s="12" t="s">
@@ -10301,7 +10304,7 @@
         <v>27</v>
       </c>
       <c r="K151" s="12" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="L151" s="12" t="s">
         <v>37</v>
@@ -10313,7 +10316,7 @@
         <v>31500.0</v>
       </c>
       <c r="O151" s="4" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="P151" s="14"/>
       <c r="Q151" s="14"/>
@@ -10330,40 +10333,40 @@
         <v>43240.41102078704</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="E152" s="3">
         <v>43240.0</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="G152" s="1" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="H152" s="1" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="I152" s="1" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="J152" s="1" t="s">
         <v>37</v>
       </c>
       <c r="K152" s="1" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="L152" s="1" t="s">
         <v>36</v>
       </c>
       <c r="O152" s="4" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="153">
@@ -10371,13 +10374,13 @@
         <v>43240.86503212963</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="E153" s="27">
         <v>36784.0</v>
@@ -10386,13 +10389,13 @@
         <v>97</v>
       </c>
       <c r="G153" s="1" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="H153" s="1" t="s">
         <v>26</v>
       </c>
       <c r="I153" s="1" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="J153" s="1" t="s">
         <v>36</v>
@@ -10415,19 +10418,19 @@
         <v>43240.86519940972</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="E154" s="3">
         <v>35641.0</v>
       </c>
       <c r="F154" s="1" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="G154" s="1" t="s">
         <v>25</v>
@@ -10436,7 +10439,7 @@
         <v>26</v>
       </c>
       <c r="I154" s="1" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="J154" s="1" t="s">
         <v>36</v>
@@ -10454,7 +10457,7 @@
         <v>30</v>
       </c>
       <c r="P154" s="1" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
     </row>
   </sheetData>

--- a/sql/Benevoles.xlsx
+++ b/sql/Benevoles.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\AE_Benevole\sql\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E6F6E0F-00B1-452B-8433-95E947DC41E8}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9FF6500-1C6A-4E56-8784-94A917F7E142}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21735" windowHeight="3780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3265,13 +3265,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:V154"/>
+  <dimension ref="A1:V166"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="3" topLeftCell="P121" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="3" topLeftCell="P20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="R155" sqref="R155"/>
+      <selection pane="bottomRight" activeCell="S151" sqref="S151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3467,7 +3467,7 @@
       </c>
       <c r="V3" s="6">
         <f>COUNT(T2:T219)</f>
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
@@ -3524,7 +3524,7 @@
       </c>
       <c r="V4">
         <f>COUNT(U2:U219)</f>
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
@@ -10987,6 +10987,74 @@
         <v>4</v>
       </c>
     </row>
+    <row r="166" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A166">
+        <v>0</v>
+      </c>
+      <c r="B166">
+        <v>1</v>
+      </c>
+      <c r="C166">
+        <v>2</v>
+      </c>
+      <c r="D166">
+        <v>3</v>
+      </c>
+      <c r="E166">
+        <v>4</v>
+      </c>
+      <c r="F166">
+        <v>5</v>
+      </c>
+      <c r="G166">
+        <v>6</v>
+      </c>
+      <c r="H166">
+        <v>7</v>
+      </c>
+      <c r="I166">
+        <v>8</v>
+      </c>
+      <c r="J166">
+        <v>9</v>
+      </c>
+      <c r="K166">
+        <v>10</v>
+      </c>
+      <c r="L166">
+        <v>11</v>
+      </c>
+      <c r="M166">
+        <v>12</v>
+      </c>
+      <c r="N166">
+        <v>13</v>
+      </c>
+      <c r="O166">
+        <v>14</v>
+      </c>
+      <c r="P166">
+        <v>15</v>
+      </c>
+      <c r="Q166">
+        <v>16</v>
+      </c>
+      <c r="R166">
+        <v>17</v>
+      </c>
+      <c r="S166">
+        <v>18</v>
+      </c>
+      <c r="T166">
+        <v>19</v>
+      </c>
+      <c r="U166">
+        <v>20</v>
+      </c>
+      <c r="V166">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
